--- a/src/main/resources/excel/门店导入模板.xlsx
+++ b/src/main/resources/excel/门店导入模板.xlsx
@@ -68,7 +68,57 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>填写</t>
+          <t>填写。
+美团填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>蜂鸟填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>达达填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: 3</t>
         </r>
       </text>
     </comment>
@@ -291,6 +341,353 @@
             <charset val="134"/>
           </rPr>
           <t>请填写精确的经纬度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>业务类型</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>食品小吃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-1,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-2,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>鲜花</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-3,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文印票务</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-8,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便利店</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-9,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水果生鲜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-13,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>同城电商</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">-19, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>医药</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-20,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>蛋糕</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-21,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>酒品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-24,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小商品市场</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-25,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>服装</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-26,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>汽修零配</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-27,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数码</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-28,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小龙虾</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">-29, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-5)</t>
         </r>
       </text>
     </comment>
@@ -801,7 +1198,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/excel/门店导入模板.xlsx
+++ b/src/main/resources/excel/门店导入模板.xlsx
@@ -783,9 +783,6 @@
     <t>test_0001</t>
   </si>
   <si>
-    <t>老百姓大药房0</t>
-  </si>
-  <si>
     <t>广东省</t>
   </si>
   <si>
@@ -808,15 +805,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>商户门店Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>九方购物中心</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>商户门店Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
+    <t>老百姓大药房1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1199,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1219,7 +1220,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1272,7 +1273,7 @@
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1281,10 +1282,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1293,37 +1294,37 @@
         <v>440000</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3">
         <v>440300</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3">
         <v>460106</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3">
         <v>13924580924</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
